--- a/biology/Médecine/Symbrachydactylie/Symbrachydactylie.xlsx
+++ b/biology/Médecine/Symbrachydactylie/Symbrachydactylie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La symbrachydactylie est une malformation non héréditaire, habituellement unilatérale, touchant le plus souvent une main et plus rarement un pied. L'anomalie, plus ou moins sévère, se caractérise par des doigts courts ou absents[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La symbrachydactylie est une malformation non héréditaire, habituellement unilatérale, touchant le plus souvent une main et plus rarement un pied. L'anomalie, plus ou moins sévère, se caractérise par des doigts courts ou absents,.
 </t>
         </is>
       </c>
